--- a/Code/Results/Cases/Case_4_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_134/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.32899288129036</v>
+        <v>13.20631253961366</v>
       </c>
       <c r="C2">
-        <v>6.508569773685783</v>
+        <v>6.549755449037868</v>
       </c>
       <c r="D2">
-        <v>7.069736642218054</v>
+        <v>6.005083849300747</v>
       </c>
       <c r="E2">
-        <v>7.35749738061237</v>
+        <v>11.1178129689675</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.10206518064149</v>
+        <v>3.668445937193999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.72976476411585</v>
+        <v>25.86373005740542</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.73665806396424</v>
+        <v>10.67884887355966</v>
       </c>
       <c r="L2">
-        <v>6.991255360641083</v>
+        <v>9.933376744691756</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.89395068676791</v>
+        <v>19.97476744142771</v>
       </c>
       <c r="O2">
-        <v>17.82542984684597</v>
+        <v>26.58240624963684</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.35923526336092</v>
+        <v>12.97195362379746</v>
       </c>
       <c r="C3">
-        <v>6.294859985021067</v>
+        <v>6.475267126448523</v>
       </c>
       <c r="D3">
-        <v>6.581927889674908</v>
+        <v>5.889741399151301</v>
       </c>
       <c r="E3">
-        <v>7.238506989152828</v>
+        <v>11.12573610350912</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.107230690617578</v>
+        <v>3.670420806046276</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.75643658693312</v>
+        <v>25.93767183367571</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.00105300863312</v>
+        <v>10.51668087114148</v>
       </c>
       <c r="L3">
-        <v>6.783828337498138</v>
+        <v>9.920325693011829</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.1022372813637</v>
+        <v>20.03631681232589</v>
       </c>
       <c r="O3">
-        <v>17.71839871428255</v>
+        <v>26.64037423884268</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.78353458443458</v>
+        <v>12.82861737789182</v>
       </c>
       <c r="C4">
-        <v>6.159617559087292</v>
+        <v>6.42835473892077</v>
       </c>
       <c r="D4">
-        <v>6.273466866135549</v>
+        <v>5.819527884897889</v>
       </c>
       <c r="E4">
-        <v>7.1686678136562</v>
+        <v>11.13250006249051</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.110503543905131</v>
+        <v>3.671698395628471</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.78481525060993</v>
+        <v>25.98765482612441</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.52429859000651</v>
+        <v>10.41788693103296</v>
       </c>
       <c r="L4">
-        <v>6.656980858953925</v>
+        <v>9.914064216460321</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.23295288210397</v>
+        <v>20.07586443551667</v>
       </c>
       <c r="O4">
-        <v>17.66620345947101</v>
+        <v>26.68122505884</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.5422862644841</v>
+        <v>12.77042771902384</v>
       </c>
       <c r="C5">
-        <v>6.103530714894249</v>
+        <v>6.408950247951513</v>
       </c>
       <c r="D5">
-        <v>6.160645828348486</v>
+        <v>5.79111182881732</v>
       </c>
       <c r="E5">
-        <v>7.1410352174823</v>
+        <v>11.13573439053635</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.111863272169682</v>
+        <v>3.672235422906563</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.7992867430038</v>
+        <v>26.00917430303366</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.32370899903408</v>
+        <v>10.37787360434237</v>
       </c>
       <c r="L5">
-        <v>6.605489211248845</v>
+        <v>9.911955426378887</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.2869540548206</v>
+        <v>20.0924232795031</v>
       </c>
       <c r="O5">
-        <v>17.64823727662678</v>
+        <v>26.69919222243949</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.50182983155296</v>
+        <v>12.76078107049613</v>
       </c>
       <c r="C6">
-        <v>6.094159868905781</v>
+        <v>6.40571104506154</v>
       </c>
       <c r="D6">
-        <v>6.141760762550948</v>
+        <v>5.786406520101447</v>
       </c>
       <c r="E6">
-        <v>7.136497287917646</v>
+        <v>11.13630032507324</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.112090641249253</v>
+        <v>3.672325587855898</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.80186207220783</v>
+        <v>26.01281707464449</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.29002046173037</v>
+        <v>10.37124575189972</v>
       </c>
       <c r="L6">
-        <v>6.596953250107135</v>
+        <v>9.911632069085254</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.29596585564726</v>
+        <v>20.09519964894864</v>
       </c>
       <c r="O6">
-        <v>17.6454506293067</v>
+        <v>26.70225532282979</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.78030775595963</v>
+        <v>12.82783161070862</v>
       </c>
       <c r="C7">
-        <v>6.158865044937254</v>
+        <v>6.428094195162432</v>
       </c>
       <c r="D7">
-        <v>6.271955530123664</v>
+        <v>5.819143802182893</v>
       </c>
       <c r="E7">
-        <v>7.16829177908923</v>
+        <v>11.13254174608505</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.110521775616237</v>
+        <v>3.671705571697975</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.78499879390159</v>
+        <v>25.98794038671728</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.52161890266639</v>
+        <v>10.41734623469662</v>
       </c>
       <c r="L7">
-        <v>6.656285520239972</v>
+        <v>9.914033980851594</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.2336781615375</v>
+        <v>20.07608595902377</v>
       </c>
       <c r="O7">
-        <v>17.66594791538553</v>
+        <v>26.68146202812207</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.99860252471872</v>
+        <v>13.12543681128355</v>
       </c>
       <c r="C8">
-        <v>6.43573864669911</v>
+        <v>6.524321022792989</v>
       </c>
       <c r="D8">
-        <v>6.905032789616176</v>
+        <v>5.965213921975632</v>
       </c>
       <c r="E8">
-        <v>7.315811902720387</v>
+        <v>11.12015098823453</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.103825589993498</v>
+        <v>3.669113409647975</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.73640303407105</v>
+        <v>25.8882733368217</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.48822632928255</v>
+        <v>10.62280212708372</v>
       </c>
       <c r="L8">
-        <v>6.919669197293937</v>
+        <v>9.92851458012243</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.96519518919126</v>
+        <v>19.99562597494034</v>
       </c>
       <c r="O8">
-        <v>17.78566249484202</v>
+        <v>26.60130105863525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.24953757934872</v>
+        <v>13.71003694709947</v>
       </c>
       <c r="C9">
-        <v>6.945377902387913</v>
+        <v>6.70332890909608</v>
       </c>
       <c r="D9">
-        <v>8.029859886176219</v>
+        <v>6.254575977444935</v>
       </c>
       <c r="E9">
-        <v>7.629817593049252</v>
+        <v>11.11089878540989</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.091470564983537</v>
+        <v>3.664543688964805</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.74135592556856</v>
+        <v>25.72924238850399</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.18511548453377</v>
+        <v>11.02966720059623</v>
       </c>
       <c r="L9">
-        <v>7.437342512699844</v>
+        <v>9.970700219672302</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.46004614234928</v>
+        <v>19.85171773084753</v>
       </c>
       <c r="O9">
-        <v>18.1317654790136</v>
+        <v>26.48591455874489</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.73811454577559</v>
+        <v>14.13565009265682</v>
       </c>
       <c r="C10">
-        <v>7.298013466516704</v>
+        <v>6.828474234138991</v>
       </c>
       <c r="D10">
-        <v>8.777374822044228</v>
+        <v>6.466474150904282</v>
       </c>
       <c r="E10">
-        <v>7.874399356072511</v>
+        <v>11.11323629695878</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.082826926468599</v>
+        <v>3.661496084322002</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.81303215188259</v>
+        <v>25.63467694484628</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.31192288787863</v>
+        <v>11.3280961976613</v>
       </c>
       <c r="L10">
-        <v>7.814877063812633</v>
+        <v>10.00993427940919</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.10032685584265</v>
+        <v>19.75436043594757</v>
       </c>
       <c r="O10">
-        <v>18.45908422463619</v>
+        <v>26.42673652656856</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.38022758107675</v>
+        <v>14.32752325042197</v>
       </c>
       <c r="C11">
-        <v>7.453485806203187</v>
+        <v>6.88392924358253</v>
       </c>
       <c r="D11">
-        <v>9.10077076063228</v>
+        <v>6.562224548133661</v>
       </c>
       <c r="E11">
-        <v>7.988421544056973</v>
+        <v>11.11627227605846</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.078979565122004</v>
+        <v>3.660176217233836</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.86190593736624</v>
+        <v>25.59650816719402</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.79888445766029</v>
+        <v>11.46315462872333</v>
       </c>
       <c r="L11">
-        <v>7.985389947445541</v>
+        <v>10.02953091184631</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.93878501134684</v>
+        <v>19.71186972341364</v>
       </c>
       <c r="O11">
-        <v>18.62484316809453</v>
+        <v>26.40539143712245</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.61840538889416</v>
+        <v>14.39985917934612</v>
       </c>
       <c r="C12">
-        <v>7.511635869113628</v>
+        <v>6.904709057930668</v>
       </c>
       <c r="D12">
-        <v>9.220876768696696</v>
+        <v>6.598351331725684</v>
       </c>
       <c r="E12">
-        <v>8.03197444291022</v>
+        <v>11.11770435877086</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.077534031412241</v>
+        <v>3.659685928279463</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.8828749782452</v>
+        <v>25.5827531199699</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.97963564615899</v>
+        <v>11.51414944092846</v>
       </c>
       <c r="L12">
-        <v>8.049737698622684</v>
+        <v>10.03719916211349</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.87788220259594</v>
+        <v>19.69603674434509</v>
       </c>
       <c r="O12">
-        <v>18.69011016005197</v>
+        <v>26.39811138109778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.56732983037777</v>
+        <v>14.38429578433744</v>
       </c>
       <c r="C13">
-        <v>7.499144571669667</v>
+        <v>6.900243649703902</v>
       </c>
       <c r="D13">
-        <v>9.195114005934563</v>
+        <v>6.59057724904765</v>
       </c>
       <c r="E13">
-        <v>8.022578195832002</v>
+        <v>11.11738339475092</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.077844860150924</v>
+        <v>3.659791098293945</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.87824749476692</v>
+        <v>25.58568442368499</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.94086940209666</v>
+        <v>11.50317416938117</v>
       </c>
       <c r="L13">
-        <v>8.035889769449353</v>
+        <v>10.0355367301148</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.89098725039598</v>
+        <v>19.69943523317623</v>
       </c>
       <c r="O13">
-        <v>18.67594153883876</v>
+        <v>26.39964354845415</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.39992197664521</v>
+        <v>14.33348122937028</v>
       </c>
       <c r="C14">
-        <v>7.458284415034157</v>
+        <v>6.885643260091072</v>
       </c>
       <c r="D14">
-        <v>9.110698971944197</v>
+        <v>6.565199580003831</v>
       </c>
       <c r="E14">
-        <v>7.991997269100942</v>
+        <v>11.11638444185785</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.078860416902838</v>
+        <v>3.660135690418605</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.86358103909351</v>
+        <v>25.5953625223156</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.81382791448637</v>
+        <v>11.46735325752224</v>
       </c>
       <c r="L14">
-        <v>7.990688554867716</v>
+        <v>10.03015684871836</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.93376928714756</v>
+        <v>19.71056198400845</v>
       </c>
       <c r="O14">
-        <v>18.6301622610484</v>
+        <v>26.4047764063277</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.29673367278475</v>
+        <v>14.30231180172915</v>
       </c>
       <c r="C15">
-        <v>7.433161797686036</v>
+        <v>6.876671249500334</v>
       </c>
       <c r="D15">
-        <v>9.058686512817992</v>
+        <v>6.549636726981249</v>
       </c>
       <c r="E15">
-        <v>7.973313798759802</v>
+        <v>11.11580929466252</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.079483932012022</v>
+        <v>3.66034800092757</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.85492161066903</v>
+        <v>25.60138165753583</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.73553703106404</v>
+        <v>11.44539111855596</v>
       </c>
       <c r="L15">
-        <v>7.96297140006713</v>
+        <v>10.02689361384334</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.96000864920908</v>
+        <v>19.71741091802634</v>
       </c>
       <c r="O15">
-        <v>18.6024485043226</v>
+        <v>26.40802501610149</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.69545105811983</v>
+        <v>14.12306947358069</v>
       </c>
       <c r="C16">
-        <v>7.287752291010137</v>
+        <v>6.824819780211056</v>
       </c>
       <c r="D16">
-        <v>8.75590822853956</v>
+        <v>6.460200286661093</v>
       </c>
       <c r="E16">
-        <v>7.867001401261738</v>
+        <v>11.11307748083168</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.083079997422928</v>
+        <v>3.661583674929934</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.81017594482532</v>
+        <v>25.63726906071125</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.27958595718275</v>
+        <v>11.31925157487817</v>
       </c>
       <c r="L16">
-        <v>7.803704912410068</v>
+        <v>10.00868844477658</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.11092349745682</v>
+        <v>19.75717337681797</v>
       </c>
       <c r="O16">
-        <v>18.44859711273255</v>
+        <v>26.42824377178423</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.31765136992253</v>
+        <v>14.01261201123608</v>
       </c>
       <c r="C17">
-        <v>7.197271442074266</v>
+        <v>6.792627357538171</v>
       </c>
       <c r="D17">
-        <v>8.5659247831799</v>
+        <v>6.405140573693832</v>
       </c>
       <c r="E17">
-        <v>7.802473432645845</v>
+        <v>11.11190601056767</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.085307202504078</v>
+        <v>3.662358720453152</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.78697958907259</v>
+        <v>25.66052783875129</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.99333388743158</v>
+        <v>11.24165513454019</v>
       </c>
       <c r="L17">
-        <v>7.705651124979431</v>
+        <v>9.997965292742496</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.20401969949247</v>
+        <v>19.78202593771188</v>
       </c>
       <c r="O17">
-        <v>18.35858601911815</v>
+        <v>26.442076192821</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.09704815738738</v>
+        <v>13.94892007783745</v>
       </c>
       <c r="C18">
-        <v>7.144764458415713</v>
+        <v>6.773972815309784</v>
       </c>
       <c r="D18">
-        <v>8.455081602725748</v>
+        <v>6.373413375134257</v>
       </c>
       <c r="E18">
-        <v>7.765619761991418</v>
+        <v>11.11141796993092</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.086596252468298</v>
+        <v>3.662810768556477</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.77516156219643</v>
+        <v>25.67436206033011</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.82627458158454</v>
+        <v>11.19696076832985</v>
       </c>
       <c r="L18">
-        <v>7.649139740170134</v>
+        <v>9.991962490831535</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.25776550047675</v>
+        <v>19.7964897416627</v>
       </c>
       <c r="O18">
-        <v>18.3083968857998</v>
+        <v>26.45055695734265</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.02178654329718</v>
+        <v>13.92732990262699</v>
       </c>
       <c r="C19">
-        <v>7.126907138532842</v>
+        <v>6.767633194954342</v>
       </c>
       <c r="D19">
-        <v>8.417281282299275</v>
+        <v>6.36266230824397</v>
       </c>
       <c r="E19">
-        <v>7.753187269952163</v>
+        <v>11.11128466695794</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.08703410363603</v>
+        <v>3.662964901293813</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.77141818434</v>
+        <v>25.67912443456599</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.76929546172842</v>
+        <v>11.18181871831727</v>
       </c>
       <c r="L19">
-        <v>7.629987949600242</v>
+        <v>9.989958481060352</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.27599807983885</v>
+        <v>19.80141604475592</v>
       </c>
       <c r="O19">
-        <v>18.2916732635653</v>
+        <v>26.45351848056228</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.35821016957409</v>
+        <v>14.02438746016731</v>
       </c>
       <c r="C20">
-        <v>7.206951495959371</v>
+        <v>6.796068668101737</v>
       </c>
       <c r="D20">
-        <v>8.586311038405404</v>
+        <v>6.411008100228148</v>
       </c>
       <c r="E20">
-        <v>7.809315682665388</v>
+        <v>11.11201149877518</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.085069288242731</v>
+        <v>3.662275567739737</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.78929027613039</v>
+        <v>25.65800465812222</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.02405558221121</v>
+        <v>11.24992227944855</v>
       </c>
       <c r="L20">
-        <v>7.71610120510097</v>
+        <v>9.999089755487777</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.19408904490698</v>
+        <v>19.77936282999112</v>
       </c>
       <c r="O20">
-        <v>18.36800348888604</v>
+        <v>26.44054939205245</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.44922826377032</v>
+        <v>14.34841599841732</v>
       </c>
       <c r="C21">
-        <v>7.470305763509398</v>
+        <v>6.889937774351501</v>
       </c>
       <c r="D21">
-        <v>9.135557375767773</v>
+        <v>6.572657497101318</v>
       </c>
       <c r="E21">
-        <v>8.000969614646253</v>
+        <v>11.11667020433386</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.078561821069722</v>
+        <v>3.660034217467854</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.86782115193603</v>
+        <v>25.59250085940918</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.85124185497578</v>
+        <v>11.47787914541955</v>
       </c>
       <c r="L21">
-        <v>8.003971592393153</v>
+        <v>10.03173036875379</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.92119611300918</v>
+        <v>19.70728681287668</v>
       </c>
       <c r="O21">
-        <v>18.64354039554491</v>
+        <v>26.4032469642423</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.13329621058187</v>
+        <v>14.55827809890095</v>
       </c>
       <c r="C22">
-        <v>7.638200349727531</v>
+        <v>6.950002117585585</v>
       </c>
       <c r="D22">
-        <v>9.480801620598459</v>
+        <v>6.677519659508836</v>
       </c>
       <c r="E22">
-        <v>8.12840413773754</v>
+        <v>11.1213604268444</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.074374729714291</v>
+        <v>3.658624810852758</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.93355026636883</v>
+        <v>25.55376308877066</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.37059678672467</v>
+        <v>11.62597317491933</v>
       </c>
       <c r="L22">
-        <v>8.190802612774165</v>
+        <v>10.05450304134397</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.74439994282595</v>
+        <v>19.66168036289707</v>
       </c>
       <c r="O22">
-        <v>18.8382092661762</v>
+        <v>26.38354772267386</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.77082594162179</v>
+        <v>14.44646830077507</v>
       </c>
       <c r="C23">
-        <v>7.54898141482569</v>
+        <v>6.918064686266044</v>
       </c>
       <c r="D23">
-        <v>9.297780851453775</v>
+        <v>6.621637034305121</v>
       </c>
       <c r="E23">
-        <v>8.060197565523277</v>
+        <v>11.11870705597561</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.076603705198233</v>
+        <v>3.659371979885043</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.89711102952739</v>
+        <v>25.57406510614664</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.09533983198172</v>
+        <v>11.54702947093711</v>
       </c>
       <c r="L23">
-        <v>8.091220315573883</v>
+        <v>10.04221847343934</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.83862812668566</v>
+        <v>19.68588457020549</v>
       </c>
       <c r="O23">
-        <v>18.73295272656171</v>
+        <v>26.39363304746697</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.33988413481066</v>
+        <v>14.01906436120884</v>
       </c>
       <c r="C24">
-        <v>7.202576663617336</v>
+        <v>6.794513307932207</v>
       </c>
       <c r="D24">
-        <v>8.577099458587236</v>
+        <v>6.408355614728412</v>
       </c>
       <c r="E24">
-        <v>7.806221538762554</v>
+        <v>11.11196322980583</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.085176822432962</v>
+        <v>3.662313140942534</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.7882408959603</v>
+        <v>25.65914394768768</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.01017405981609</v>
+        <v>11.24618495847542</v>
       </c>
       <c r="L24">
-        <v>7.711377153205875</v>
+        <v>9.998580880715657</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.1985779951369</v>
+        <v>19.78056627347723</v>
       </c>
       <c r="O24">
-        <v>18.36374099907582</v>
+        <v>26.4412380130572</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.66986794659965</v>
+        <v>13.55225399610933</v>
       </c>
       <c r="C25">
-        <v>6.811245101872218</v>
+        <v>6.655988887195205</v>
       </c>
       <c r="D25">
-        <v>7.739571920983343</v>
+        <v>6.176243990728836</v>
       </c>
       <c r="E25">
-        <v>7.542344307823597</v>
+        <v>11.11179421377089</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.094733786711926</v>
+        <v>3.665725285610473</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.7285711610117</v>
+        <v>25.76835794819988</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.7472279718347</v>
+        <v>10.91947904632288</v>
       </c>
       <c r="L25">
-        <v>7.297555900658319</v>
+        <v>9.9578276353755</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.59457712662055</v>
+        <v>19.88917235302576</v>
       </c>
       <c r="O25">
-        <v>18.02566148298704</v>
+        <v>26.51264156250693</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_134/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_134/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.20631253961366</v>
+        <v>14.32899288129031</v>
       </c>
       <c r="C2">
-        <v>6.549755449037868</v>
+        <v>6.508569773685665</v>
       </c>
       <c r="D2">
-        <v>6.005083849300747</v>
+        <v>7.069736642218078</v>
       </c>
       <c r="E2">
-        <v>11.1178129689675</v>
+        <v>7.357497380612365</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.668445937193999</v>
+        <v>2.10206518064149</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.86373005740542</v>
+        <v>16.729764764116</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.67884887355966</v>
+        <v>11.73665806396417</v>
       </c>
       <c r="L2">
-        <v>9.933376744691756</v>
+        <v>6.991255360641087</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.97476744142771</v>
+        <v>12.89395068676795</v>
       </c>
       <c r="O2">
-        <v>26.58240624963684</v>
+        <v>17.82542984684616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.97195362379746</v>
+        <v>13.35923526336094</v>
       </c>
       <c r="C3">
-        <v>6.475267126448523</v>
+        <v>6.294859985020936</v>
       </c>
       <c r="D3">
-        <v>5.889741399151301</v>
+        <v>6.581927889674921</v>
       </c>
       <c r="E3">
-        <v>11.12573610350912</v>
+        <v>7.238506989152839</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.670420806046276</v>
+        <v>2.107230690617443</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.93767183367571</v>
+        <v>16.75643658693314</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.51668087114148</v>
+        <v>11.00105300863316</v>
       </c>
       <c r="L3">
-        <v>9.920325693011829</v>
+        <v>6.783828337498164</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.03631681232589</v>
+        <v>13.10223728136371</v>
       </c>
       <c r="O3">
-        <v>26.64037423884268</v>
+        <v>17.71839871428257</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.82861737789182</v>
+        <v>12.78353458443459</v>
       </c>
       <c r="C4">
-        <v>6.42835473892077</v>
+        <v>6.159617559087524</v>
       </c>
       <c r="D4">
-        <v>5.819527884897889</v>
+        <v>6.273466866135544</v>
       </c>
       <c r="E4">
-        <v>11.13250006249051</v>
+        <v>7.1686678136563</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.671698395628471</v>
+        <v>2.110503543905398</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.98765482612441</v>
+        <v>16.78481525060993</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.41788693103296</v>
+        <v>10.52429859000652</v>
       </c>
       <c r="L4">
-        <v>9.914064216460321</v>
+        <v>6.656980858953927</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.07586443551667</v>
+        <v>13.23295288210394</v>
       </c>
       <c r="O4">
-        <v>26.68122505884</v>
+        <v>17.666203459471</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.77042771902384</v>
+        <v>12.54228626448412</v>
       </c>
       <c r="C5">
-        <v>6.408950247951513</v>
+        <v>6.103530714894127</v>
       </c>
       <c r="D5">
-        <v>5.79111182881732</v>
+        <v>6.1606458283485</v>
       </c>
       <c r="E5">
-        <v>11.13573439053635</v>
+        <v>7.141035217482361</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.672235422906563</v>
+        <v>2.111863272169683</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.00917430303366</v>
+        <v>16.79928674300381</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.37787360434237</v>
+        <v>10.32370899903403</v>
       </c>
       <c r="L5">
-        <v>9.911955426378887</v>
+        <v>6.605489211248912</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.0924232795031</v>
+        <v>13.2869540548206</v>
       </c>
       <c r="O5">
-        <v>26.69919222243949</v>
+        <v>17.64823727662687</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.76078107049613</v>
+        <v>12.50182983155296</v>
       </c>
       <c r="C6">
-        <v>6.40571104506154</v>
+        <v>6.094159868905632</v>
       </c>
       <c r="D6">
-        <v>5.786406520101447</v>
+        <v>6.141760762550905</v>
       </c>
       <c r="E6">
-        <v>11.13630032507324</v>
+        <v>7.136497287917609</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.672325587855898</v>
+        <v>2.112090641249253</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.01281707464449</v>
+        <v>16.80186207220773</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.37124575189972</v>
+        <v>10.29002046173041</v>
       </c>
       <c r="L6">
-        <v>9.911632069085254</v>
+        <v>6.596953250107098</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.09519964894864</v>
+        <v>13.2959658556472</v>
       </c>
       <c r="O6">
-        <v>26.70225532282979</v>
+        <v>17.6454506293066</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.82783161070862</v>
+        <v>12.78030775595963</v>
       </c>
       <c r="C7">
-        <v>6.428094195162432</v>
+        <v>6.158865044937134</v>
       </c>
       <c r="D7">
-        <v>5.819143802182893</v>
+        <v>6.271955530123637</v>
       </c>
       <c r="E7">
-        <v>11.13254174608505</v>
+        <v>7.168291779089134</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.671705571697975</v>
+        <v>2.110521775616237</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.98794038671728</v>
+        <v>16.78499879390152</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.41734623469662</v>
+        <v>10.52161890266641</v>
       </c>
       <c r="L7">
-        <v>9.914033980851594</v>
+        <v>6.656285520239889</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.07608595902377</v>
+        <v>13.23367816153747</v>
       </c>
       <c r="O7">
-        <v>26.68146202812207</v>
+        <v>17.66594791538551</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.12543681128355</v>
+        <v>13.9986025247187</v>
       </c>
       <c r="C8">
-        <v>6.524321022792989</v>
+        <v>6.435738646698972</v>
       </c>
       <c r="D8">
-        <v>5.965213921975632</v>
+        <v>6.905032789616077</v>
       </c>
       <c r="E8">
-        <v>11.12015098823453</v>
+        <v>7.315811902720479</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.669113409647975</v>
+        <v>2.103825589993364</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.8882733368217</v>
+        <v>16.73640303407128</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.62280212708372</v>
+        <v>11.48822632928249</v>
       </c>
       <c r="L8">
-        <v>9.92851458012243</v>
+        <v>6.919669197293999</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.99562597494034</v>
+        <v>12.96519518919142</v>
       </c>
       <c r="O8">
-        <v>26.60130105863525</v>
+        <v>17.78566249484228</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.71003694709947</v>
+        <v>16.24953757934872</v>
       </c>
       <c r="C9">
-        <v>6.70332890909608</v>
+        <v>6.945377902388124</v>
       </c>
       <c r="D9">
-        <v>6.254575977444935</v>
+        <v>8.029859886176219</v>
       </c>
       <c r="E9">
-        <v>11.11089878540989</v>
+        <v>7.629817593049372</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.664543688964805</v>
+        <v>2.091470564983402</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.72924238850399</v>
+        <v>16.74135592556857</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.02966720059623</v>
+        <v>13.18511548453382</v>
       </c>
       <c r="L9">
-        <v>9.970700219672302</v>
+        <v>7.437342512699872</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.85171773084753</v>
+        <v>12.46004614234921</v>
       </c>
       <c r="O9">
-        <v>26.48591455874489</v>
+        <v>18.13176547901353</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.13565009265682</v>
+        <v>17.73811454577559</v>
       </c>
       <c r="C10">
-        <v>6.828474234138991</v>
+        <v>7.298013466516704</v>
       </c>
       <c r="D10">
-        <v>6.466474150904282</v>
+        <v>8.777374822044196</v>
       </c>
       <c r="E10">
-        <v>11.11323629695878</v>
+        <v>7.874399356072582</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.661496084322002</v>
+        <v>2.0828269264686</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.63467694484628</v>
+        <v>16.81303215188267</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.3280961976613</v>
+        <v>14.31192288787863</v>
       </c>
       <c r="L10">
-        <v>10.00993427940919</v>
+        <v>7.814877063812648</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.75436043594757</v>
+        <v>12.10032685584275</v>
       </c>
       <c r="O10">
-        <v>26.42673652656856</v>
+        <v>18.45908422463628</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.32752325042197</v>
+        <v>18.38022758107675</v>
       </c>
       <c r="C11">
-        <v>6.88392924358253</v>
+        <v>7.453485806203136</v>
       </c>
       <c r="D11">
-        <v>6.562224548133661</v>
+        <v>9.10077076063234</v>
       </c>
       <c r="E11">
-        <v>11.11627227605846</v>
+        <v>7.988421544057054</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.660176217233836</v>
+        <v>2.078979565121336</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.59650816719402</v>
+        <v>16.86190593736638</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.46315462872333</v>
+        <v>14.79888445766025</v>
       </c>
       <c r="L11">
-        <v>10.02953091184631</v>
+        <v>7.98538994744558</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.71186972341364</v>
+        <v>11.93878501134698</v>
       </c>
       <c r="O11">
-        <v>26.40539143712245</v>
+        <v>18.62484316809464</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.39985917934612</v>
+        <v>18.6184053888941</v>
       </c>
       <c r="C12">
-        <v>6.904709057930668</v>
+        <v>7.511635869113611</v>
       </c>
       <c r="D12">
-        <v>6.598351331725684</v>
+        <v>9.220876768696751</v>
       </c>
       <c r="E12">
-        <v>11.11770435877086</v>
+        <v>8.031974442910208</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.659685928279463</v>
+        <v>2.07753403141224</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.5827531199699</v>
+        <v>16.88287497824526</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.51414944092846</v>
+        <v>14.97963564615893</v>
       </c>
       <c r="L12">
-        <v>10.03719916211349</v>
+        <v>8.049737698622677</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.69603674434509</v>
+        <v>11.87788220259594</v>
       </c>
       <c r="O12">
-        <v>26.39811138109778</v>
+        <v>18.69011016005202</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.38429578433744</v>
+        <v>18.56732983037775</v>
       </c>
       <c r="C13">
-        <v>6.900243649703902</v>
+        <v>7.499144571669768</v>
       </c>
       <c r="D13">
-        <v>6.59057724904765</v>
+        <v>9.195114005934556</v>
       </c>
       <c r="E13">
-        <v>11.11738339475092</v>
+        <v>8.022578195832034</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.659791098293945</v>
+        <v>2.07784486015079</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.58568442368499</v>
+        <v>16.87824749476695</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.50317416938117</v>
+        <v>14.94086940209666</v>
       </c>
       <c r="L13">
-        <v>10.0355367301148</v>
+        <v>8.035889769449369</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.69943523317623</v>
+        <v>11.89098725039605</v>
       </c>
       <c r="O13">
-        <v>26.39964354845415</v>
+        <v>18.67594153883877</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.33348122937028</v>
+        <v>18.3999219766452</v>
       </c>
       <c r="C14">
-        <v>6.885643260091072</v>
+        <v>7.458284415034258</v>
       </c>
       <c r="D14">
-        <v>6.565199580003831</v>
+        <v>9.110698971944228</v>
       </c>
       <c r="E14">
-        <v>11.11638444185785</v>
+        <v>7.991997269101003</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.660135690418605</v>
+        <v>2.078860416902834</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.5953625223156</v>
+        <v>16.86358103909356</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.46735325752224</v>
+        <v>14.81382791448634</v>
       </c>
       <c r="L14">
-        <v>10.03015684871836</v>
+        <v>7.990688554867765</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.71056198400845</v>
+        <v>11.93376928714756</v>
       </c>
       <c r="O14">
-        <v>26.4047764063277</v>
+        <v>18.63016226104842</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.30231180172915</v>
+        <v>18.29673367278478</v>
       </c>
       <c r="C15">
-        <v>6.876671249500334</v>
+        <v>7.433161797686254</v>
       </c>
       <c r="D15">
-        <v>6.549636726981249</v>
+        <v>9.058686512818005</v>
       </c>
       <c r="E15">
-        <v>11.11580929466252</v>
+        <v>7.973313798759799</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.66034800092757</v>
+        <v>2.07948393201202</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.60138165753583</v>
+        <v>16.85492161066903</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.44539111855596</v>
+        <v>14.73553703106408</v>
       </c>
       <c r="L15">
-        <v>10.02689361384334</v>
+        <v>7.962971400067116</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.71741091802634</v>
+        <v>11.96000864920905</v>
       </c>
       <c r="O15">
-        <v>26.40802501610149</v>
+        <v>18.60244850432256</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.12306947358069</v>
+        <v>17.69545105811991</v>
       </c>
       <c r="C16">
-        <v>6.824819780211056</v>
+        <v>7.287752291010217</v>
       </c>
       <c r="D16">
-        <v>6.460200286661093</v>
+        <v>8.755908228539598</v>
       </c>
       <c r="E16">
-        <v>11.11307748083168</v>
+        <v>7.867001401261735</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.661583674929934</v>
+        <v>2.083079997422929</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.63726906071125</v>
+        <v>16.8101759448252</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.31925157487817</v>
+        <v>14.27958595718282</v>
       </c>
       <c r="L16">
-        <v>10.00868844477658</v>
+        <v>7.803704912410094</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.75717337681797</v>
+        <v>12.11092349745675</v>
       </c>
       <c r="O16">
-        <v>26.42824377178423</v>
+        <v>18.44859711273243</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.01261201123608</v>
+        <v>17.31765136992251</v>
       </c>
       <c r="C17">
-        <v>6.792627357538171</v>
+        <v>7.197271442074251</v>
       </c>
       <c r="D17">
-        <v>6.405140573693832</v>
+        <v>8.565924783179964</v>
       </c>
       <c r="E17">
-        <v>11.11190601056767</v>
+        <v>7.802473432645815</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.662358720453152</v>
+        <v>2.08530720250408</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.66052783875129</v>
+        <v>16.78697958907264</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.24165513454019</v>
+        <v>13.99333388743156</v>
       </c>
       <c r="L17">
-        <v>9.997965292742496</v>
+        <v>7.7056511249794</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.78202593771188</v>
+        <v>12.20401969949247</v>
       </c>
       <c r="O17">
-        <v>26.442076192821</v>
+        <v>18.35858601911816</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.94892007783745</v>
+        <v>17.09704815738746</v>
       </c>
       <c r="C18">
-        <v>6.773972815309784</v>
+        <v>7.144764458415684</v>
       </c>
       <c r="D18">
-        <v>6.373413375134257</v>
+        <v>8.455081602725825</v>
       </c>
       <c r="E18">
-        <v>11.11141796993092</v>
+        <v>7.765619761991509</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.662810768556477</v>
+        <v>2.086596252468432</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.67436206033011</v>
+        <v>16.77516156219627</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.19696076832985</v>
+        <v>13.8262745815846</v>
       </c>
       <c r="L18">
-        <v>9.991962490831535</v>
+        <v>7.649139740170134</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.7964897416627</v>
+        <v>12.25776550047665</v>
       </c>
       <c r="O18">
-        <v>26.45055695734265</v>
+        <v>18.30839688579964</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.92732990262699</v>
+        <v>17.02178654329725</v>
       </c>
       <c r="C19">
-        <v>6.767633194954342</v>
+        <v>7.126907138532623</v>
       </c>
       <c r="D19">
-        <v>6.36266230824397</v>
+        <v>8.417281282299333</v>
       </c>
       <c r="E19">
-        <v>11.11128466695794</v>
+        <v>7.753187269952019</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.662964901293813</v>
+        <v>2.087034103635896</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.67912443456599</v>
+        <v>16.77141818433987</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.18181871831727</v>
+        <v>13.76929546172846</v>
       </c>
       <c r="L19">
-        <v>9.989958481060352</v>
+        <v>7.629987949600219</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.80141604475592</v>
+        <v>12.27599807983878</v>
       </c>
       <c r="O19">
-        <v>26.45351848056228</v>
+        <v>18.29167326356522</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.02438746016731</v>
+        <v>17.35821016957398</v>
       </c>
       <c r="C20">
-        <v>6.796068668101737</v>
+        <v>7.206951495959571</v>
       </c>
       <c r="D20">
-        <v>6.411008100228148</v>
+        <v>8.586311038405425</v>
       </c>
       <c r="E20">
-        <v>11.11201149877518</v>
+        <v>7.809315682665427</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.662275567739737</v>
+        <v>2.085069288242465</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.65800465812222</v>
+        <v>16.78929027613044</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.24992227944855</v>
+        <v>14.02405558221115</v>
       </c>
       <c r="L20">
-        <v>9.999089755487777</v>
+        <v>7.716101205100954</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.77936282999112</v>
+        <v>12.19408904490692</v>
       </c>
       <c r="O20">
-        <v>26.44054939205245</v>
+        <v>18.368003488886</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.34841599841732</v>
+        <v>18.44922826377032</v>
       </c>
       <c r="C21">
-        <v>6.889937774351501</v>
+        <v>7.470305763509471</v>
       </c>
       <c r="D21">
-        <v>6.572657497101318</v>
+        <v>9.135557375767776</v>
       </c>
       <c r="E21">
-        <v>11.11667020433386</v>
+        <v>8.000969614646305</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.660034217467854</v>
+        <v>2.078561821069854</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.59250085940918</v>
+        <v>16.86782115193608</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.47787914541955</v>
+        <v>14.85124185497579</v>
       </c>
       <c r="L21">
-        <v>10.03173036875379</v>
+        <v>8.003971592393153</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.70728681287668</v>
+        <v>11.92119611300921</v>
       </c>
       <c r="O21">
-        <v>26.4032469642423</v>
+        <v>18.64354039554493</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.55827809890095</v>
+        <v>19.13329621058186</v>
       </c>
       <c r="C22">
-        <v>6.950002117585585</v>
+        <v>7.63820034972762</v>
       </c>
       <c r="D22">
-        <v>6.677519659508836</v>
+        <v>9.480801620598521</v>
       </c>
       <c r="E22">
-        <v>11.1213604268444</v>
+        <v>8.128404137737547</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.658624810852758</v>
+        <v>2.074374729714158</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.55376308877066</v>
+        <v>16.9335502663689</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.62597317491933</v>
+        <v>15.37059678672467</v>
       </c>
       <c r="L22">
-        <v>10.05450304134397</v>
+        <v>8.190802612774146</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.66168036289707</v>
+        <v>11.74439994282595</v>
       </c>
       <c r="O22">
-        <v>26.38354772267386</v>
+        <v>18.83820926617622</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.44646830077507</v>
+        <v>18.77082594162178</v>
       </c>
       <c r="C23">
-        <v>6.918064686266044</v>
+        <v>7.548981414825574</v>
       </c>
       <c r="D23">
-        <v>6.621637034305121</v>
+        <v>9.297780851453775</v>
       </c>
       <c r="E23">
-        <v>11.11870705597561</v>
+        <v>8.060197565523211</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.659371979885043</v>
+        <v>2.076603705198367</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.57406510614664</v>
+        <v>16.8971110295274</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.54702947093711</v>
+        <v>15.09533983198169</v>
       </c>
       <c r="L23">
-        <v>10.04221847343934</v>
+        <v>8.091220315573841</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.68588457020549</v>
+        <v>11.83862812668569</v>
       </c>
       <c r="O23">
-        <v>26.39363304746697</v>
+        <v>18.73295272656174</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.01906436120884</v>
+        <v>17.33988413481066</v>
       </c>
       <c r="C24">
-        <v>6.794513307932207</v>
+        <v>7.202576663617566</v>
       </c>
       <c r="D24">
-        <v>6.408355614728412</v>
+        <v>8.577099458587165</v>
       </c>
       <c r="E24">
-        <v>11.11196322980583</v>
+        <v>7.806221538762551</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.662313140942534</v>
+        <v>2.085176822433094</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.65914394768768</v>
+        <v>16.7882408959603</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.24618495847542</v>
+        <v>14.01017405981613</v>
       </c>
       <c r="L24">
-        <v>9.998580880715657</v>
+        <v>7.711377153205877</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.78056627347723</v>
+        <v>12.1985779951369</v>
       </c>
       <c r="O24">
-        <v>26.4412380130572</v>
+        <v>18.36374099907575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.55225399610933</v>
+        <v>15.66986794659971</v>
       </c>
       <c r="C25">
-        <v>6.655988887195205</v>
+        <v>6.811245101871871</v>
       </c>
       <c r="D25">
-        <v>6.176243990728836</v>
+        <v>7.739571920983327</v>
       </c>
       <c r="E25">
-        <v>11.11179421377089</v>
+        <v>7.542344307823562</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.665725285610473</v>
+        <v>2.09473378671166</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.76835794819988</v>
+        <v>16.72857116101154</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.91947904632288</v>
+        <v>12.74722797183471</v>
       </c>
       <c r="L25">
-        <v>9.9578276353755</v>
+        <v>7.297555900658345</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.88917235302576</v>
+        <v>12.59457712662042</v>
       </c>
       <c r="O25">
-        <v>26.51264156250693</v>
+        <v>18.02566148298693</v>
       </c>
     </row>
   </sheetData>
